--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2148072913579503</v>
+        <v>-0.2159279182453454</v>
       </c>
       <c r="D2">
-        <v>0.8299436544254628</v>
+        <v>0.831033411157537</v>
       </c>
       <c r="E2">
         <v>8.74610410586749</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.976845033777517</v>
+        <v>-1.025707438976052</v>
       </c>
       <c r="D3">
-        <v>0.3287865982361531</v>
+        <v>0.3161760420499813</v>
       </c>
       <c r="E3">
         <v>8.74610410586749</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-3.106532255335897</v>
+        <v>-2.743840755384584</v>
       </c>
       <c r="D4">
-        <v>0.001924644991178059</v>
+        <v>0.0118500545612259</v>
       </c>
       <c r="E4">
         <v>8.74610410586749</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-3.279281997855696</v>
+        <v>-4.669040918040095</v>
       </c>
       <c r="D5">
-        <v>0.001062010402955282</v>
+        <v>0.0001177545371808808</v>
       </c>
       <c r="E5">
         <v>8.74610410586749</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.7389523517636605</v>
+        <v>-0.7377658936177198</v>
       </c>
       <c r="D6">
-        <v>0.4600392180332784</v>
+        <v>0.4684536135066821</v>
       </c>
       <c r="E6">
         <v>8.90707495862987</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-2.385359516557743</v>
+        <v>-2.121469381947279</v>
       </c>
       <c r="D7">
-        <v>0.01717277551843011</v>
+        <v>0.04538612117626628</v>
       </c>
       <c r="E7">
         <v>8.90707495862987</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-2.920991813785672</v>
+        <v>-4.10053781979866</v>
       </c>
       <c r="D8">
-        <v>0.003535779257510807</v>
+        <v>0.0004719726044126737</v>
       </c>
       <c r="E8">
         <v>8.90707495862987</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-2.117429810190719</v>
+        <v>-1.733804290229447</v>
       </c>
       <c r="D9">
-        <v>0.0343700491903014</v>
+        <v>0.09694659853638954</v>
       </c>
       <c r="E9">
         <v>9.460908002293953</v>
@@ -635,7 +635,7 @@
         <v>11.47367605786912</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>60</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-2.344544419899592</v>
+        <v>-3.055892475233526</v>
       </c>
       <c r="D10">
-        <v>0.01916632122622008</v>
+        <v>0.005791538328698831</v>
       </c>
       <c r="E10">
         <v>9.460908002293953</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.7873458300681951</v>
+        <v>-0.8832288212678392</v>
       </c>
       <c r="D11">
-        <v>0.4311905752458056</v>
+        <v>0.3866625721520309</v>
       </c>
       <c r="E11">
         <v>11.47367605786912</v>
